--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,30 +40,21 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -73,109 +64,109 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -533,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7012987012987013</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C5">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6470588235294118</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.625</v>
+        <v>0.28</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -852,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5416666666666666</v>
+        <v>0.2189922480620155</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3928571428571428</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3703703703703703</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,245 +961,149 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L10">
+        <v>67</v>
+      </c>
+      <c r="M10">
+        <v>67</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11">
+        <v>0.8125</v>
+      </c>
+      <c r="L11">
+        <v>104</v>
+      </c>
+      <c r="M11">
+        <v>104</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L12">
+        <v>47</v>
+      </c>
+      <c r="M12">
+        <v>47</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="L13">
+        <v>89</v>
+      </c>
+      <c r="M13">
+        <v>89</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>45</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.3390557939914163</v>
-      </c>
-      <c r="C11">
-        <v>79</v>
-      </c>
-      <c r="D11">
-        <v>79</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>154</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="K14">
+        <v>0.7264150943396226</v>
+      </c>
+      <c r="L14">
+        <v>77</v>
+      </c>
+      <c r="M14">
+        <v>77</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L11">
-        <v>46</v>
-      </c>
-      <c r="M11">
-        <v>46</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>65</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L12">
-        <v>22</v>
-      </c>
-      <c r="M12">
-        <v>22</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.225</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>62</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L13">
-        <v>40</v>
-      </c>
-      <c r="M13">
-        <v>40</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>95</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L14">
-        <v>30</v>
-      </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7586206896551724</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1246,47 +1141,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6896551724137931</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L17">
+        <v>43</v>
+      </c>
+      <c r="M17">
+        <v>43</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>20</v>
-      </c>
-      <c r="M17">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K18">
         <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1298,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6438356164383562</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1324,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1350,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1376,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K22">
         <v>0.6</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1402,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.5882352941176471</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1428,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5789473684210527</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1454,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5357142857142857</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1480,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.5347222222222222</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L26">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1506,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5333333333333333</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1532,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5258215962441315</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L28">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="M28">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1558,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>101</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4961240310077519</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L29">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1584,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.4545454545454545</v>
+        <v>0.401673640167364</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1610,47 +1505,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4239130434782609</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>39</v>
-      </c>
-      <c r="M31">
-        <v>39</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1662,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3428571428571429</v>
+        <v>0.02996670366259711</v>
       </c>
       <c r="L33">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1688,59 +1583,85 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.03286384976525822</v>
+        <v>0.02463605823068309</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>412</v>
+        <v>871</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.02926829268292683</v>
+        <v>0.01307800093414292</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>398</v>
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.009990331936835321</v>
+      </c>
+      <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>35</v>
+      </c>
+      <c r="N36">
+        <v>0.89</v>
+      </c>
+      <c r="O36">
+        <v>0.11</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>3072</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,91 +43,82 @@
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>energy</t>
   </si>
   <si>
     <t>hand</t>
@@ -136,31 +127,34 @@
     <t>care</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>store</t>
   </si>
   <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
   <si>
     <t>19</t>
@@ -524,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7307692307692307</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6388888888888888</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5924657534246576</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C6">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>173</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,187 +787,115 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.28</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C7">
+        <v>105</v>
+      </c>
+      <c r="D7">
+        <v>105</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>411</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8048780487804879</v>
+      </c>
+      <c r="L8">
+        <v>66</v>
+      </c>
+      <c r="M8">
+        <v>66</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>0.8046875</v>
+      </c>
+      <c r="L9">
+        <v>103</v>
+      </c>
+      <c r="M9">
+        <v>103</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>54</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2189922480620155</v>
-      </c>
-      <c r="C8">
-        <v>113</v>
-      </c>
-      <c r="D8">
-        <v>113</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>403</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8">
-        <v>0.8478260869565217</v>
-      </c>
-      <c r="L8">
-        <v>39</v>
-      </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2169312169312169</v>
-      </c>
-      <c r="C9">
-        <v>41</v>
-      </c>
-      <c r="D9">
-        <v>41</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>148</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L9">
-        <v>30</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.1409395973154362</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>128</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,15 +907,15 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L11">
         <v>104</v>
@@ -1011,21 +933,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L12">
         <v>26</v>
       </c>
-      <c r="K12">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L12">
-        <v>47</v>
-      </c>
       <c r="M12">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1037,21 +959,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7416666666666667</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L13">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1063,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7264150943396226</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L14">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1089,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7253521126760564</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="L15">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="M15">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1115,21 +1037,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L16">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="M16">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1141,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6825396825396826</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1167,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1193,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1219,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6470588235294118</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1245,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6274509803921569</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1271,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1297,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5851063829787234</v>
+        <v>0.5</v>
       </c>
       <c r="L23">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1323,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5326370757180157</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L24">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M24">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1349,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5056179775280899</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1375,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4680851063829787</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1401,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4576271186440678</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L27">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M27">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1427,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4470588235294118</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L28">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1453,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>188</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.410958904109589</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1479,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.401673640167364</v>
+        <v>0.34375</v>
       </c>
       <c r="L30">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1505,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>143</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1531,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1557,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.02996670366259711</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1583,85 +1505,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>874</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.02463605823068309</v>
+        <v>0.03914988814317674</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>871</v>
+        <v>859</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.01307800093414292</v>
+        <v>0.02663706992230854</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N35">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2113</v>
+        <v>877</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.009990331936835321</v>
+        <v>0.01401214385801028</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N36">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O36">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3072</v>
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37">
+        <v>0.0119201030927835</v>
+      </c>
+      <c r="L37">
+        <v>37</v>
+      </c>
+      <c r="M37">
+        <v>40</v>
+      </c>
+      <c r="N37">
+        <v>0.93</v>
+      </c>
+      <c r="O37">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3067</v>
       </c>
     </row>
   </sheetData>
